--- a/biology/Microbiologie/Turbidimétrie/Turbidimétrie.xlsx
+++ b/biology/Microbiologie/Turbidimétrie/Turbidimétrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Turbidim%C3%A9trie</t>
+          <t>Turbidimétrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La turbidimétrie est la mesure du degré de turbidité d'une suspension. Elle fait partie de la photométrie des milieux troubles. Elle est déterminée grâce à un système optique, en général un spectrophotomètre classique, qui mesure la diminution, due à l'absorbance, de l'intensité d'un rayon lumineux de longueur d'onde connue traversant la suspension. La turbidimétrie est utilisée en complément à la néphélométrie qui se base plutôt sur la diminution de l'intensité par diffusion de la lumière.
 La turbidimétrie est utilisée en microbiologie dans le but d'effectuer une numération bactérienne totale, (aussi bien des bactéries "mortes" que vivantes), par la détermination de la biomasse d'un échantillon. 
